--- a/va_facility_data_2025-02-20/Framingham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Framingham%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Framingham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Framingham%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc15f8d1d344a4998af0309ca0267af61"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0881f8d25ced49d6894e8980bd3645e4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6158a8bfedd64c9bbb00cab0fe694c3d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4faf7d10c16447fbaf4ebbfb210ff802"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R37e0cd8486974db9b841bd21e6743654"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R36a93a12e5eb43c1ab1ba52d8c3fa42c"/>
   </x:sheets>
 </x:workbook>
 </file>
